--- a/[2023-09-16] Tencent Model.xlsx
+++ b/[2023-09-16] Tencent Model.xlsx
@@ -24,7 +24,7 @@
         <color theme="1"/>
         <sz val="9.0"/>
       </rPr>
-      <t>(in millions</t>
+      <t>in millions (cny)</t>
     </r>
     <r>
       <rPr>
@@ -32,7 +32,7 @@
         <color theme="1"/>
         <sz val="9.0"/>
       </rPr>
-      <t>, exept per shares)</t>
+      <t>, exept per shares</t>
     </r>
   </si>
   <si>
@@ -280,12 +280,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="[$¥]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$¥]#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -308,11 +310,6 @@
     </font>
     <font>
       <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <strike/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -684,7 +681,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -702,7 +699,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -717,7 +714,7 @@
     <xf borderId="8" fillId="5" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -726,6 +723,9 @@
     <xf borderId="8" fillId="5" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="13" fillId="3" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="14" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -750,7 +750,7 @@
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="7" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -765,7 +765,7 @@
     <xf borderId="6" fillId="7" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="7" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -841,19 +841,19 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -862,49 +862,40 @@
     <xf borderId="13" fillId="4" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="4" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="6" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="4" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="4" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -913,7 +904,7 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="6" fontId="3" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="12" fillId="9" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -923,30 +914,30 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="10" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="14" fillId="10" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="10" fontId="3" numFmtId="168" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="14" fillId="10" fontId="3" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="12" fillId="5" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="5" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="5" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="5" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="5" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="6" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="6" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="11" fillId="6" fontId="3" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="14" fillId="5" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -962,13 +953,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="13" fillId="9" fontId="3" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="6" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="6" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -981,35 +969,40 @@
     <xf borderId="13" fillId="9" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="9" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="13" fillId="9" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="6" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="13" fillId="9" fontId="3" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="8" fillId="6" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="9" fontId="1" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="14" fillId="9" fontId="2" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="11" fillId="6" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1027,9 +1020,9 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3009900" cy="3409950"/>
+    <xdr:ext cx="3009900" cy="3743325"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -1038,7 +1031,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1421475" y="1308875"/>
-          <a:ext cx="2832600" cy="3232500"/>
+          <a:ext cx="2832600" cy="3570900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,7 +1071,7 @@
               <a:cs typeface="Helvetica Neue"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>Located in Shenzhen, Tencent is a Chinese IT Conglomerate with an “all-in-one” mobile app WeChat, and a host of corporate investments.</a:t>
+            <a:t>Located in Shenzhen, Tencent is a Chinese IT Conglomerate with an “all-in-one” mobile app WeChat, and a portfolio of corporate investments.</a:t>
           </a:r>
           <a:endParaRPr sz="1100">
             <a:latin typeface="Helvetica Neue"/>
@@ -1258,6 +1251,70 @@
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>- Lackluster 2022 with flat revenue</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1100">
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Given the 2024 election, Tencent is a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100">
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>buy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>.</a:t>
           </a:r>
           <a:endParaRPr sz="1100">
             <a:latin typeface="Helvetica Neue"/>
@@ -2263,7 +2320,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="65">
-        <v>40.39</v>
+        <v>293.81</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="11" t="s">
@@ -2357,7 +2414,7 @@
       <c r="B28" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="71">
+      <c r="C28" s="79">
         <v>377580.0</v>
       </c>
       <c r="D28" s="10"/>
@@ -2390,26 +2447,26 @@
       <c r="B29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="80"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="82">
         <v>0.0</v>
       </c>
-      <c r="G29" s="82">
+      <c r="G29" s="83">
         <v>-90691.0</v>
       </c>
-      <c r="H29" s="82">
+      <c r="H29" s="83">
         <v>-34871.0</v>
       </c>
-      <c r="I29" s="82">
+      <c r="I29" s="83">
         <v>-23721.0</v>
       </c>
-      <c r="J29" s="83">
+      <c r="J29" s="84">
         <v>-23829.0</v>
       </c>
       <c r="K29" s="5"/>
@@ -2422,11 +2479,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="84"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="72"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
       <c r="I30" s="63"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2435,30 +2492,30 @@
       <c r="N30" s="5"/>
     </row>
     <row r="31">
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="87">
+      <c r="C31" s="88">
         <f>C25*C26</f>
-        <v>384916.7</v>
+        <v>2800009.3</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="89">
         <v>0.0</v>
       </c>
-      <c r="G31" s="89">
+      <c r="G31" s="90">
         <v>148590.0</v>
       </c>
-      <c r="H31" s="90">
+      <c r="H31" s="91">
         <v>194119.0</v>
       </c>
-      <c r="I31" s="90">
+      <c r="I31" s="91">
         <v>175186.0</v>
       </c>
-      <c r="J31" s="91">
+      <c r="J31" s="92">
         <v>146091.0</v>
       </c>
       <c r="K31" s="5"/>
@@ -2467,30 +2524,30 @@
       <c r="N31" s="5"/>
     </row>
     <row r="32">
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="92">
+      <c r="C32" s="93">
         <f>C31-C27+C28</f>
-        <v>414766.7</v>
+        <v>2829859.3</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="93">
+      <c r="F32" s="94">
         <v>0.0</v>
       </c>
-      <c r="G32" s="94">
+      <c r="G32" s="95">
         <v>-116170.0</v>
       </c>
-      <c r="H32" s="94">
+      <c r="H32" s="95">
         <v>-181955.0</v>
       </c>
-      <c r="I32" s="94">
+      <c r="I32" s="95">
         <v>-178549.0</v>
       </c>
-      <c r="J32" s="95">
+      <c r="J32" s="96">
         <v>-104871.0</v>
       </c>
       <c r="K32" s="5"/>
@@ -2499,30 +2556,30 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33">
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="96">
+      <c r="C33" s="97">
         <f>C31/J20</f>
-        <v>2.039736843</v>
+        <v>14.83770938</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F33" s="94">
         <v>0.0</v>
       </c>
-      <c r="G33" s="94">
+      <c r="G33" s="95">
         <v>1672.0</v>
       </c>
-      <c r="H33" s="94">
+      <c r="H33" s="95">
         <v>13647.0</v>
       </c>
-      <c r="I33" s="94">
+      <c r="I33" s="95">
         <v>21620.0</v>
       </c>
-      <c r="J33" s="95">
+      <c r="J33" s="96">
         <v>-59953.0</v>
       </c>
       <c r="K33" s="5"/>
@@ -2531,30 +2588,30 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34">
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="96">
+      <c r="C34" s="97">
         <f>C31/J4</f>
-        <v>0.6941038893</v>
+        <v>5.049137502</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="93">
+      <c r="F34" s="94">
         <v>0.0</v>
       </c>
-      <c r="G34" s="94">
+      <c r="G34" s="95">
         <v>34092.0</v>
       </c>
-      <c r="H34" s="94">
+      <c r="H34" s="95">
         <v>25811.0</v>
       </c>
-      <c r="I34" s="94">
+      <c r="I34" s="95">
         <v>18257.0</v>
       </c>
-      <c r="J34" s="95">
+      <c r="J34" s="96">
         <v>-18733.0</v>
       </c>
       <c r="K34" s="5"/>
@@ -2564,30 +2621,30 @@
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="99">
+      <c r="C35" s="100">
         <f>C31/C27</f>
-        <v>1.106941305</v>
-      </c>
-      <c r="D35" s="100"/>
+        <v>8.052251172</v>
+      </c>
+      <c r="D35" s="101"/>
       <c r="E35" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="101">
+      <c r="F35" s="102">
         <v>0.0</v>
       </c>
-      <c r="G35" s="102">
+      <c r="G35" s="103">
         <v>232520.0</v>
       </c>
-      <c r="H35" s="102">
+      <c r="H35" s="103">
         <v>262464.0</v>
       </c>
-      <c r="I35" s="102">
+      <c r="I35" s="103">
         <v>323476.0</v>
       </c>
-      <c r="J35" s="103">
+      <c r="J35" s="104">
         <v>359141.0</v>
       </c>
       <c r="K35" s="5"/>
@@ -2597,18 +2654,18 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="99">
+      <c r="C36" s="100">
         <f>C32/J4</f>
-        <v>0.7479311228</v>
-      </c>
-      <c r="D36" s="84"/>
-      <c r="E36" s="104"/>
+        <v>5.102964735</v>
+      </c>
+      <c r="D36" s="85"/>
+      <c r="E36" s="105"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49"/>
-      <c r="H36" s="105"/>
+      <c r="H36" s="106"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2617,30 +2674,30 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37">
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="106">
+      <c r="C37" s="107">
         <f>C32/J18</f>
-        <v>1.972965632</v>
+        <v>13.46109787</v>
       </c>
       <c r="D37" s="49"/>
-      <c r="E37" s="107" t="s">
+      <c r="E37" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="108" t="s">
+      <c r="F37" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="109" t="s">
+      <c r="G37" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="110" t="s">
+      <c r="H37" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="108" t="s">
+      <c r="I37" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="111" t="s">
+      <c r="J37" s="112" t="s">
         <v>35</v>
       </c>
       <c r="K37" s="42"/>
@@ -2653,11 +2710,11 @@
       <c r="B38" s="20"/>
       <c r="C38" s="5"/>
       <c r="D38" s="49"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="115"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="116"/>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
@@ -2669,29 +2726,29 @@
       <c r="B39" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="116">
+      <c r="C39" s="117">
         <v>0.08</v>
       </c>
       <c r="D39" s="49"/>
-      <c r="E39" s="117">
+      <c r="E39" s="118">
         <v>2018.0</v>
       </c>
-      <c r="F39" s="118" t="s">
+      <c r="F39" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="119" t="s">
+      <c r="G39" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="120">
+      <c r="H39" s="121">
         <v>0.0</v>
       </c>
-      <c r="I39" s="121">
+      <c r="I39" s="122">
         <v>0.0</v>
       </c>
-      <c r="J39" s="122">
+      <c r="J39" s="123">
         <v>0.0</v>
       </c>
-      <c r="K39" s="123"/>
+      <c r="K39" s="124"/>
       <c r="L39" s="42"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -2701,32 +2758,32 @@
       <c r="B40" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="124">
+      <c r="C40" s="125">
         <v>0.1</v>
       </c>
       <c r="D40" s="49"/>
-      <c r="E40" s="117">
+      <c r="E40" s="118">
         <v>2019.0</v>
       </c>
-      <c r="F40" s="125">
+      <c r="F40" s="126">
         <f>G4</f>
         <v>377289</v>
       </c>
-      <c r="G40" s="126" t="s">
+      <c r="G40" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="127">
+      <c r="H40" s="128">
         <f>G20</f>
         <v>95888</v>
       </c>
-      <c r="I40" s="128">
+      <c r="I40" s="129">
         <v>0.0</v>
       </c>
-      <c r="J40" s="129">
+      <c r="J40" s="130">
         <f>G35</f>
         <v>232520</v>
       </c>
-      <c r="K40" s="123">
+      <c r="K40" s="124">
         <v>1.0</v>
       </c>
       <c r="L40" s="42"/>
@@ -2738,12 +2795,12 @@
       <c r="B41" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="130">
+      <c r="C41" s="131">
         <f t="array" ref="C41">NPV(C39, H44:H54)</f>
         <v>2791601.392</v>
       </c>
       <c r="D41" s="64"/>
-      <c r="E41" s="131">
+      <c r="E41" s="118">
         <v>2020.0</v>
       </c>
       <c r="F41" s="132">
@@ -2754,18 +2811,18 @@
         <f>H5</f>
         <v>0.2777048894</v>
       </c>
-      <c r="H41" s="127">
+      <c r="H41" s="128">
         <f>H20</f>
         <v>160125</v>
       </c>
-      <c r="I41" s="134">
+      <c r="I41" s="129">
         <v>0.0</v>
       </c>
-      <c r="J41" s="135">
+      <c r="J41" s="130">
         <f>H35</f>
         <v>262464</v>
       </c>
-      <c r="K41" s="123">
+      <c r="K41" s="124">
         <f>(J41/J40)</f>
         <v>1.12878032</v>
       </c>
@@ -2777,12 +2834,12 @@
       <c r="B42" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="130">
+      <c r="C42" s="131">
         <f>C41+C27-C28</f>
         <v>2761751.392</v>
       </c>
-      <c r="D42" s="136"/>
-      <c r="E42" s="137">
+      <c r="D42" s="134"/>
+      <c r="E42" s="135">
         <v>2021.0</v>
       </c>
       <c r="F42" s="132">
@@ -2793,18 +2850,18 @@
         <f>I5</f>
         <v>0.4845860865</v>
       </c>
-      <c r="H42" s="127">
+      <c r="H42" s="128">
         <f>I20</f>
         <v>227810</v>
       </c>
-      <c r="I42" s="128">
+      <c r="I42" s="129">
         <v>0.0</v>
       </c>
-      <c r="J42" s="129">
+      <c r="J42" s="130">
         <f>I35</f>
         <v>323476</v>
       </c>
-      <c r="K42" s="123">
+      <c r="K42" s="124">
         <f t="shared" ref="K42:K43" si="8">J42/J41</f>
         <v>1.232458547</v>
       </c>
@@ -2816,12 +2873,12 @@
       <c r="B43" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="138">
+      <c r="C43" s="136">
         <f>C26</f>
         <v>9530</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="137">
+      <c r="D43" s="134"/>
+      <c r="E43" s="135">
         <v>2022.0</v>
       </c>
       <c r="F43" s="132">
@@ -2832,18 +2889,18 @@
         <f>J5</f>
         <v>-0.009937191806</v>
       </c>
-      <c r="H43" s="127">
+      <c r="H43" s="128">
         <f>J20</f>
         <v>188709</v>
       </c>
-      <c r="I43" s="128">
+      <c r="I43" s="129">
         <v>0.0</v>
       </c>
-      <c r="J43" s="129">
+      <c r="J43" s="130">
         <f>J35</f>
         <v>359141</v>
       </c>
-      <c r="K43" s="123">
+      <c r="K43" s="124">
         <f t="shared" si="8"/>
         <v>1.110255475</v>
       </c>
@@ -2855,34 +2912,34 @@
       <c r="B44" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="139">
+      <c r="C44" s="137">
         <f>C42/C43</f>
         <v>289.7955291</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="137">
+      <c r="D44" s="134"/>
+      <c r="E44" s="135">
         <v>2023.0</v>
       </c>
-      <c r="F44" s="125">
+      <c r="F44" s="126">
         <f t="shared" ref="F44:F54" si="9">F43*(1+G44)</f>
         <v>637734.8</v>
       </c>
-      <c r="G44" s="140">
+      <c r="G44" s="138">
         <v>0.15</v>
       </c>
-      <c r="H44" s="127">
+      <c r="H44" s="128">
         <f t="shared" ref="H44:H54" si="10">H43*(1+G44)</f>
         <v>217015.35</v>
       </c>
-      <c r="I44" s="141">
+      <c r="I44" s="139">
         <f>G43-G44</f>
         <v>-0.1599371918</v>
       </c>
-      <c r="J44" s="129">
+      <c r="J44" s="130">
         <f>K44*J43</f>
         <v>398738.2615</v>
       </c>
-      <c r="K44" s="123">
+      <c r="K44" s="124">
         <f>K43</f>
         <v>1.110255475</v>
       </c>
@@ -2893,27 +2950,27 @@
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="38"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="137">
+      <c r="D45" s="134"/>
+      <c r="E45" s="135">
         <v>2024.0</v>
       </c>
-      <c r="F45" s="125">
+      <c r="F45" s="126">
         <f t="shared" si="9"/>
         <v>730206.346</v>
       </c>
-      <c r="G45" s="140">
+      <c r="G45" s="138">
         <f>G44-(G44-G54) / 10</f>
         <v>0.145</v>
       </c>
-      <c r="H45" s="127">
+      <c r="H45" s="128">
         <f t="shared" si="10"/>
         <v>248482.5758</v>
       </c>
-      <c r="I45" s="141">
+      <c r="I45" s="139">
         <f t="shared" ref="I45:I54" si="11">I44 * (1+G44)</f>
         <v>-0.1839277706</v>
       </c>
-      <c r="J45" s="142">
+      <c r="J45" s="140">
         <f>K44*J44</f>
         <v>442701.3379</v>
       </c>
@@ -2927,31 +2984,31 @@
       <c r="B46" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="143">
+      <c r="C46" s="141">
         <f>(C44-C25)/C44</f>
-        <v>0.8606258691</v>
+        <v>-0.01385277025</v>
       </c>
       <c r="D46" s="42"/>
-      <c r="E46" s="137">
+      <c r="E46" s="135">
         <v>2025.0</v>
       </c>
-      <c r="F46" s="125">
+      <c r="F46" s="126">
         <f t="shared" si="9"/>
         <v>832435.2344</v>
       </c>
-      <c r="G46" s="140">
+      <c r="G46" s="138">
         <f>G45-(G44-G54) / 10</f>
         <v>0.14</v>
       </c>
-      <c r="H46" s="127">
+      <c r="H46" s="128">
         <f t="shared" si="10"/>
         <v>283270.1364</v>
       </c>
-      <c r="I46" s="141">
+      <c r="I46" s="139">
         <f t="shared" si="11"/>
         <v>-0.2105972973</v>
       </c>
-      <c r="J46" s="129">
+      <c r="J46" s="130">
         <f>K44*J45</f>
         <v>491511.5841</v>
       </c>
@@ -2965,31 +3022,31 @@
       <c r="B47" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="144">
+      <c r="C47" s="142">
         <f>I54</f>
         <v>-0.5305943475</v>
       </c>
       <c r="D47" s="42"/>
-      <c r="E47" s="145">
+      <c r="E47" s="143">
         <v>2026.0</v>
       </c>
-      <c r="F47" s="125">
+      <c r="F47" s="126">
         <f t="shared" si="9"/>
         <v>944813.9911</v>
       </c>
-      <c r="G47" s="140">
+      <c r="G47" s="138">
         <f>G46-(G44-G54) / 10</f>
         <v>0.135</v>
       </c>
-      <c r="H47" s="127">
+      <c r="H47" s="128">
         <f t="shared" si="10"/>
         <v>321511.6048</v>
       </c>
-      <c r="I47" s="141">
+      <c r="I47" s="139">
         <f t="shared" si="11"/>
         <v>-0.2400809189</v>
       </c>
-      <c r="J47" s="129">
+      <c r="J47" s="130">
         <f>K44*J46</f>
         <v>545703.4273</v>
       </c>
@@ -3003,26 +3060,26 @@
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="42"/>
-      <c r="E48" s="145">
+      <c r="E48" s="143">
         <v>2027.0</v>
       </c>
-      <c r="F48" s="125">
+      <c r="F48" s="126">
         <f t="shared" si="9"/>
         <v>1067639.81</v>
       </c>
-      <c r="G48" s="140">
+      <c r="G48" s="138">
         <f>G47-(G44-G54) / 10</f>
         <v>0.13</v>
       </c>
-      <c r="H48" s="127">
+      <c r="H48" s="128">
         <f t="shared" si="10"/>
         <v>363308.1134</v>
       </c>
-      <c r="I48" s="141">
+      <c r="I48" s="139">
         <f t="shared" si="11"/>
         <v>-0.272491843</v>
       </c>
-      <c r="J48" s="129">
+      <c r="J48" s="130">
         <f>K44*J47</f>
         <v>605870.2178</v>
       </c>
@@ -3035,31 +3092,31 @@
       <c r="B49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="146">
+      <c r="C49" s="144">
         <f>C41+C27-J54</f>
         <v>2004537.093</v>
       </c>
       <c r="D49" s="20"/>
-      <c r="E49" s="145">
+      <c r="E49" s="143">
         <v>2028.0</v>
       </c>
-      <c r="F49" s="125">
+      <c r="F49" s="126">
         <f t="shared" si="9"/>
         <v>1201094.786</v>
       </c>
-      <c r="G49" s="140">
+      <c r="G49" s="138">
         <f>G48-(G44-G54) / 10</f>
         <v>0.125</v>
       </c>
-      <c r="H49" s="127">
+      <c r="H49" s="128">
         <f t="shared" si="10"/>
         <v>408721.6276</v>
       </c>
-      <c r="I49" s="141">
+      <c r="I49" s="139">
         <f t="shared" si="11"/>
         <v>-0.3079157826</v>
       </c>
-      <c r="J49" s="129">
+      <c r="J49" s="130">
         <f>K44*J48</f>
         <v>672670.7264</v>
       </c>
@@ -3072,31 +3129,31 @@
       <c r="B50" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="147">
+      <c r="C50" s="145">
         <f>C49/C43</f>
         <v>210.339674</v>
       </c>
       <c r="D50" s="42"/>
-      <c r="E50" s="145">
+      <c r="E50" s="143">
         <v>2029.0</v>
       </c>
-      <c r="F50" s="125">
+      <c r="F50" s="126">
         <f t="shared" si="9"/>
         <v>1345226.161</v>
       </c>
-      <c r="G50" s="140">
+      <c r="G50" s="138">
         <f>G49-(G44-G54) / 10</f>
         <v>0.12</v>
       </c>
-      <c r="H50" s="127">
+      <c r="H50" s="128">
         <f t="shared" si="10"/>
         <v>457768.2229</v>
       </c>
-      <c r="I50" s="141">
+      <c r="I50" s="139">
         <f t="shared" si="11"/>
         <v>-0.3464052554</v>
       </c>
-      <c r="J50" s="129">
+      <c r="J50" s="130">
         <f>K44*J49</f>
         <v>746836.3568</v>
       </c>
@@ -3110,26 +3167,26 @@
       <c r="B51" s="11"/>
       <c r="C51" s="1"/>
       <c r="D51" s="42"/>
-      <c r="E51" s="145">
+      <c r="E51" s="143">
         <v>2030.0</v>
       </c>
-      <c r="F51" s="125">
+      <c r="F51" s="126">
         <f t="shared" si="9"/>
         <v>1499927.169</v>
       </c>
-      <c r="G51" s="140">
+      <c r="G51" s="138">
         <f>G50-(G44-G54) / 10</f>
         <v>0.115</v>
       </c>
-      <c r="H51" s="127">
+      <c r="H51" s="128">
         <f t="shared" si="10"/>
         <v>510411.5685</v>
       </c>
-      <c r="I51" s="141">
+      <c r="I51" s="139">
         <f t="shared" si="11"/>
         <v>-0.387973886</v>
       </c>
-      <c r="J51" s="142">
+      <c r="J51" s="140">
         <f>K44*J50</f>
         <v>829179.154</v>
       </c>
@@ -3143,30 +3200,30 @@
       <c r="B52" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="148">
+      <c r="C52" s="146">
         <v>0.1</v>
       </c>
       <c r="D52" s="42"/>
-      <c r="E52" s="104">
+      <c r="E52" s="105">
         <v>2031.0</v>
       </c>
-      <c r="F52" s="125">
+      <c r="F52" s="126">
         <f t="shared" si="9"/>
         <v>1664919.158</v>
       </c>
-      <c r="G52" s="140">
+      <c r="G52" s="138">
         <f>G51-(G44-G54) / 10</f>
         <v>0.11</v>
       </c>
-      <c r="H52" s="127">
+      <c r="H52" s="128">
         <f t="shared" si="10"/>
         <v>566556.841</v>
       </c>
-      <c r="I52" s="141">
+      <c r="I52" s="139">
         <f t="shared" si="11"/>
         <v>-0.4325908829</v>
       </c>
-      <c r="J52" s="142">
+      <c r="J52" s="140">
         <f>K44*J51</f>
         <v>920600.6954</v>
       </c>
@@ -3180,31 +3237,31 @@
       <c r="B53" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="149">
+      <c r="C53" s="147">
         <f t="array" ref="C53">NPV(C39, H58:H68)</f>
         <v>7700925.004</v>
       </c>
       <c r="D53" s="20"/>
-      <c r="E53" s="104">
+      <c r="E53" s="105">
         <v>2032.0</v>
       </c>
-      <c r="F53" s="125">
+      <c r="F53" s="126">
         <f t="shared" si="9"/>
         <v>1839735.669</v>
       </c>
-      <c r="G53" s="140">
+      <c r="G53" s="138">
         <f>G52-(G44-G54) / 10</f>
         <v>0.105</v>
       </c>
-      <c r="H53" s="127">
+      <c r="H53" s="128">
         <f t="shared" si="10"/>
         <v>626045.3093</v>
       </c>
-      <c r="I53" s="141">
+      <c r="I53" s="139">
         <f t="shared" si="11"/>
         <v>-0.4801758801</v>
       </c>
-      <c r="J53" s="142">
+      <c r="J53" s="140">
         <f>K44*J52</f>
         <v>1022101.962</v>
       </c>
@@ -3218,31 +3275,31 @@
       <c r="B54" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="150">
+      <c r="C54" s="148">
         <f>C53/J68</f>
         <v>933.3065518</v>
       </c>
       <c r="D54" s="20"/>
-      <c r="E54" s="104">
+      <c r="E54" s="105">
         <v>2033.0</v>
       </c>
-      <c r="F54" s="151">
+      <c r="F54" s="149">
         <f t="shared" si="9"/>
         <v>2023709.236</v>
       </c>
-      <c r="G54" s="152">
+      <c r="G54" s="150">
         <f>C40</f>
         <v>0.1</v>
       </c>
-      <c r="H54" s="153">
+      <c r="H54" s="151">
         <f t="shared" si="10"/>
         <v>688649.8403</v>
       </c>
-      <c r="I54" s="154">
+      <c r="I54" s="152">
         <f t="shared" si="11"/>
         <v>-0.5305943475</v>
       </c>
-      <c r="J54" s="155">
+      <c r="J54" s="153">
         <f>K44*J53</f>
         <v>1134794.3</v>
       </c>
@@ -3256,14 +3313,14 @@
       <c r="B55" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="156">
+      <c r="C55" s="154">
         <f>(C54/C25)^(1/10)-1</f>
-        <v>0.3689104731</v>
-      </c>
-      <c r="D55" s="136"/>
+        <v>0.1225243592</v>
+      </c>
+      <c r="D55" s="134"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
+      <c r="F55" s="155"/>
+      <c r="G55" s="155"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -3275,22 +3332,22 @@
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="158"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="107" t="s">
+      <c r="C56" s="156"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="108" t="s">
+      <c r="F56" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="108" t="s">
+      <c r="G56" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="159" t="s">
+      <c r="H56" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="I56" s="108"/>
-      <c r="J56" s="111" t="s">
+      <c r="I56" s="109"/>
+      <c r="J56" s="112" t="s">
         <v>28</v>
       </c>
       <c r="L56" s="5"/>
@@ -3302,51 +3359,51 @@
       <c r="B57" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="160">
+      <c r="C57" s="158">
         <v>-0.02</v>
       </c>
-      <c r="D57" s="136"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="115"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="116"/>
       <c r="J57" s="42"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="161"/>
+      <c r="A58" s="159"/>
       <c r="B58" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="162">
+      <c r="C58" s="160">
         <f>(J20/J4)</f>
         <v>0.3402909015</v>
       </c>
       <c r="D58" s="32"/>
-      <c r="E58" s="104">
+      <c r="E58" s="105">
         <v>2033.0</v>
       </c>
-      <c r="F58" s="163">
+      <c r="F58" s="119">
         <f>F54*C59</f>
         <v>562677.0579</v>
       </c>
-      <c r="G58" s="164">
+      <c r="G58" s="161">
         <f t="shared" ref="G58:H58" si="12">G54</f>
         <v>0.1</v>
       </c>
-      <c r="H58" s="165">
+      <c r="H58" s="162">
         <f t="shared" si="12"/>
         <v>688649.8403</v>
       </c>
-      <c r="I58" s="166"/>
-      <c r="J58" s="167">
+      <c r="I58" s="163"/>
+      <c r="J58" s="164">
         <f>K58*J23</f>
         <v>9588.380228</v>
       </c>
-      <c r="K58" s="168">
+      <c r="K58" s="165">
         <f>((J23-G23)/G23 + 1)</f>
         <v>1.006337136</v>
       </c>
@@ -3355,36 +3412,36 @@
       <c r="N58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="161"/>
+      <c r="A59" s="159"/>
       <c r="B59" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="169">
+      <c r="C59" s="166">
         <f>C58*(1+C57)^10</f>
         <v>0.278042442</v>
       </c>
       <c r="D59" s="32"/>
-      <c r="E59" s="104">
+      <c r="E59" s="105">
         <v>2034.0</v>
       </c>
-      <c r="F59" s="125">
+      <c r="F59" s="126">
         <f t="shared" ref="F59:F68" si="13">F58*(1+G59)</f>
         <v>618944.7637</v>
       </c>
-      <c r="G59" s="140">
+      <c r="G59" s="138">
         <f>G58-(G58-G68) / 10</f>
         <v>0.1</v>
       </c>
-      <c r="H59" s="127">
+      <c r="H59" s="128">
         <f t="shared" ref="H59:H68" si="14">H58*(1+G59)</f>
         <v>757514.8243</v>
       </c>
-      <c r="I59" s="141"/>
-      <c r="J59" s="142">
+      <c r="I59" s="139"/>
+      <c r="J59" s="167">
         <f t="shared" ref="J59:J62" si="15">K59*J58</f>
         <v>9166.685939</v>
       </c>
-      <c r="K59" s="168">
+      <c r="K59" s="165">
         <f t="shared" ref="K59:K61" si="16">K58*0.95</f>
         <v>0.9560202788</v>
       </c>
@@ -3393,36 +3450,36 @@
       <c r="N59" s="5"/>
     </row>
     <row r="60">
-      <c r="A60" s="161"/>
+      <c r="A60" s="159"/>
       <c r="B60" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="170">
+      <c r="C60" s="168">
         <f t="array" ref="C60">NPV(C39, F58:F68)</f>
         <v>6292216.408</v>
       </c>
       <c r="D60" s="32"/>
-      <c r="E60" s="104">
+      <c r="E60" s="105">
         <v>2035.0</v>
       </c>
-      <c r="F60" s="125">
+      <c r="F60" s="126">
         <f t="shared" si="13"/>
         <v>680839.2401</v>
       </c>
-      <c r="G60" s="140">
+      <c r="G60" s="138">
         <f>G59-(G58-G68) / 10</f>
         <v>0.1</v>
       </c>
-      <c r="H60" s="127">
+      <c r="H60" s="128">
         <f t="shared" si="14"/>
         <v>833266.3067</v>
       </c>
-      <c r="I60" s="141"/>
-      <c r="J60" s="129">
+      <c r="I60" s="139"/>
+      <c r="J60" s="169">
         <f t="shared" si="15"/>
         <v>8325.360765</v>
       </c>
-      <c r="K60" s="168">
+      <c r="K60" s="165">
         <f t="shared" si="16"/>
         <v>0.9082192649</v>
       </c>
@@ -3431,36 +3488,36 @@
       <c r="N60" s="5"/>
     </row>
     <row r="61">
-      <c r="A61" s="161"/>
+      <c r="A61" s="159"/>
       <c r="B61" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="171">
+      <c r="C61" s="170">
         <f>C60/J68</f>
         <v>762.579404</v>
       </c>
       <c r="D61" s="32"/>
-      <c r="E61" s="104">
+      <c r="E61" s="105">
         <v>2036.0</v>
       </c>
-      <c r="F61" s="125">
+      <c r="F61" s="126">
         <f t="shared" si="13"/>
         <v>748923.1641</v>
       </c>
-      <c r="G61" s="140">
+      <c r="G61" s="138">
         <f>G60-(G58-G68) / 10</f>
         <v>0.1</v>
       </c>
-      <c r="H61" s="127">
+      <c r="H61" s="128">
         <f t="shared" si="14"/>
         <v>916592.9374</v>
       </c>
-      <c r="I61" s="141"/>
-      <c r="J61" s="142">
+      <c r="I61" s="139"/>
+      <c r="J61" s="167">
         <f t="shared" si="15"/>
         <v>7183.190382</v>
       </c>
-      <c r="K61" s="168">
+      <c r="K61" s="165">
         <f t="shared" si="16"/>
         <v>0.8628083016</v>
       </c>
@@ -3473,32 +3530,32 @@
       <c r="B62" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="172">
+      <c r="C62" s="171">
         <f>(C61/C25)^(1/10)-1</f>
-        <v>0.3415322636</v>
+        <v>0.100073872</v>
       </c>
       <c r="D62" s="20"/>
-      <c r="E62" s="104">
+      <c r="E62" s="105">
         <v>2037.0</v>
       </c>
-      <c r="F62" s="125">
+      <c r="F62" s="126">
         <f t="shared" si="13"/>
         <v>823815.4805</v>
       </c>
-      <c r="G62" s="140">
+      <c r="G62" s="138">
         <f>G61-(G58-G68) / 10</f>
         <v>0.1</v>
       </c>
-      <c r="H62" s="127">
+      <c r="H62" s="128">
         <f t="shared" si="14"/>
         <v>1008252.231</v>
       </c>
-      <c r="I62" s="141"/>
-      <c r="J62" s="129">
+      <c r="I62" s="139"/>
+      <c r="J62" s="169">
         <f t="shared" si="15"/>
         <v>7326.85419</v>
       </c>
-      <c r="K62" s="173">
+      <c r="K62" s="172">
         <v>1.02</v>
       </c>
       <c r="L62" s="5"/>
@@ -3510,23 +3567,23 @@
       <c r="B63" s="11"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
-      <c r="E63" s="104">
+      <c r="E63" s="105">
         <v>2038.0</v>
       </c>
-      <c r="F63" s="125">
+      <c r="F63" s="126">
         <f t="shared" si="13"/>
         <v>906197.0286</v>
       </c>
-      <c r="G63" s="140">
+      <c r="G63" s="138">
         <f>G62-(G58-G68) / 10</f>
         <v>0.1</v>
       </c>
-      <c r="H63" s="127">
+      <c r="H63" s="128">
         <f t="shared" si="14"/>
         <v>1109077.454</v>
       </c>
-      <c r="I63" s="141"/>
-      <c r="J63" s="142">
+      <c r="I63" s="139"/>
+      <c r="J63" s="167">
         <f>K62*J62</f>
         <v>7473.391274</v>
       </c>
@@ -3537,25 +3594,25 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="174"/>
+      <c r="C64" s="173"/>
       <c r="D64" s="20"/>
-      <c r="E64" s="104">
+      <c r="E64" s="105">
         <v>2039.0</v>
       </c>
-      <c r="F64" s="125">
+      <c r="F64" s="126">
         <f t="shared" si="13"/>
         <v>996816.7315</v>
       </c>
-      <c r="G64" s="140">
+      <c r="G64" s="138">
         <f>G63-(G58-G68) / 10</f>
         <v>0.1</v>
       </c>
-      <c r="H64" s="127">
+      <c r="H64" s="128">
         <f t="shared" si="14"/>
         <v>1219985.2</v>
       </c>
-      <c r="I64" s="141"/>
-      <c r="J64" s="142">
+      <c r="I64" s="139"/>
+      <c r="J64" s="167">
         <f>K62*J63</f>
         <v>7622.859099</v>
       </c>
@@ -3568,23 +3625,23 @@
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
-      <c r="E65" s="104">
+      <c r="E65" s="105">
         <v>2040.0</v>
       </c>
-      <c r="F65" s="125">
+      <c r="F65" s="126">
         <f t="shared" si="13"/>
         <v>1096498.405</v>
       </c>
-      <c r="G65" s="140">
+      <c r="G65" s="138">
         <f>G64-(G58-G68) / 10</f>
         <v>0.1</v>
       </c>
-      <c r="H65" s="127">
+      <c r="H65" s="128">
         <f t="shared" si="14"/>
         <v>1341983.72</v>
       </c>
-      <c r="I65" s="141"/>
-      <c r="J65" s="142">
+      <c r="I65" s="139"/>
+      <c r="J65" s="167">
         <f>K62*J64</f>
         <v>7775.316281</v>
       </c>
@@ -3597,23 +3654,23 @@
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
-      <c r="E66" s="104">
+      <c r="E66" s="105">
         <v>2041.0</v>
       </c>
-      <c r="F66" s="125">
+      <c r="F66" s="126">
         <f t="shared" si="13"/>
         <v>1206148.245</v>
       </c>
-      <c r="G66" s="140">
+      <c r="G66" s="138">
         <f>G65-(G58-G68) / 10</f>
         <v>0.1</v>
       </c>
-      <c r="H66" s="127">
+      <c r="H66" s="128">
         <f t="shared" si="14"/>
         <v>1476182.092</v>
       </c>
-      <c r="I66" s="141"/>
-      <c r="J66" s="142">
+      <c r="I66" s="139"/>
+      <c r="J66" s="167">
         <f>K62*J65</f>
         <v>7930.822607</v>
       </c>
@@ -3626,23 +3683,23 @@
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
-      <c r="E67" s="104">
+      <c r="E67" s="105">
         <v>2042.0</v>
       </c>
-      <c r="F67" s="125">
+      <c r="F67" s="126">
         <f t="shared" si="13"/>
         <v>1326763.07</v>
       </c>
-      <c r="G67" s="140">
+      <c r="G67" s="138">
         <f>G66-(G58-G68) / 10</f>
         <v>0.1</v>
       </c>
-      <c r="H67" s="127">
+      <c r="H67" s="128">
         <f t="shared" si="14"/>
         <v>1623800.301</v>
       </c>
-      <c r="I67" s="141"/>
-      <c r="J67" s="142">
+      <c r="I67" s="139"/>
+      <c r="J67" s="167">
         <f>K62*J66</f>
         <v>8089.439059</v>
       </c>
@@ -3651,27 +3708,27 @@
       <c r="N67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="161"/>
+      <c r="A68" s="159"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
       <c r="D68" s="20"/>
-      <c r="E68" s="104">
+      <c r="E68" s="105">
         <v>2043.0</v>
       </c>
-      <c r="F68" s="151">
+      <c r="F68" s="149">
         <f t="shared" si="13"/>
         <v>1459439.377</v>
       </c>
-      <c r="G68" s="152">
+      <c r="G68" s="150">
         <f>C52</f>
         <v>0.1</v>
       </c>
-      <c r="H68" s="153">
+      <c r="H68" s="151">
         <f t="shared" si="14"/>
         <v>1786180.331</v>
       </c>
-      <c r="I68" s="154"/>
-      <c r="J68" s="155">
+      <c r="I68" s="152"/>
+      <c r="J68" s="174">
         <f>K62*J67</f>
         <v>8251.22784</v>
       </c>
@@ -3681,7 +3738,7 @@
       <c r="N68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="161"/>
+      <c r="A69" s="159"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="20"/>
